--- a/xlsx/FR/burden_sharing_FR.xlsx
+++ b/xlsx/FR/burden_sharing_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">The richest countries should pay it all, &lt;br&gt; so that the poorest countries do not have to pay anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The richest countries should pay even more &lt;br&gt; to help vulnerable countries face adverse consequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries should pay in proportion to &lt;br&gt; their past emissions (from 1990 onwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries should pay in proportion to their income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries should pay in proportion to their current emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0586640758000039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0541661495033966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0469434648495483</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0240564707996577</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0182411602625665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0943690892982863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.127667676476198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.103374386230659</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0558401027253723</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0503297840001342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.346694205187089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.314574145897291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.32305861464764</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.297935269847071</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.197341675684032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.271808165199773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.30961520556128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.363070116376922</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.390634066638462</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.331794753844915</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.228464464514848</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.193976822561834</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.163553417895231</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.231534089989437</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.402292626208352</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/burden_sharing_FR.xlsx
+++ b/xlsx/FR/burden_sharing_FR.xlsx
@@ -17,19 +17,19 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">The richest countries should pay even more &lt;br&gt; to help vulnerable countries face adverse consequences</t>
+  </si>
+  <si>
     <t xml:space="preserve">The richest countries should pay it all, &lt;br&gt; so that the poorest countries do not have to pay anything</t>
   </si>
   <si>
-    <t xml:space="preserve">The richest countries should pay even more &lt;br&gt; to help vulnerable countries face adverse consequences</t>
-  </si>
-  <si>
     <t xml:space="preserve">Countries should pay in proportion to &lt;br&gt; their past emissions (from 1990 onwards)</t>
   </si>
   <si>
+    <t xml:space="preserve">Countries should pay in proportion to their current emissions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Countries should pay in proportion to their income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Countries should pay in proportion to their current emissions</t>
   </si>
   <si>
     <t xml:space="preserve">Strongly disagree</t>
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0586640758000039</v>
+        <v>0.0586221849248337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0541661495033966</v>
+        <v>0.0636864158803978</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0469434648495483</v>
+        <v>0.0515272929860766</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0240564707996577</v>
+        <v>0.016101207560527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0182411602625665</v>
+        <v>0.017976316370137</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0943690892982863</v>
+        <v>0.119969235776959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127667676476198</v>
+        <v>0.0806141305822127</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103374386230659</v>
+        <v>0.0864934148052933</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0558401027253723</v>
+        <v>0.049556095900685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0503297840001342</v>
+        <v>0.0619384977119508</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346694205187089</v>
+        <v>0.314687523923485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.314574145897291</v>
+        <v>0.35889736603064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32305861464764</v>
+        <v>0.323633380192542</v>
       </c>
       <c r="E4" t="n">
-        <v>0.297935269847071</v>
+        <v>0.203243869111595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.197341675684032</v>
+        <v>0.288587531807929</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271808165199773</v>
+        <v>0.300022507268566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.30961520556128</v>
+        <v>0.260053710065603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.363070116376922</v>
+        <v>0.382006910373506</v>
       </c>
       <c r="E5" t="n">
-        <v>0.390634066638462</v>
+        <v>0.342052774058735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.331794753844915</v>
+        <v>0.392352512659915</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228464464514848</v>
+        <v>0.206698548106157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193976822561834</v>
+        <v>0.236748377441146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163553417895231</v>
+        <v>0.156339001642582</v>
       </c>
       <c r="E6" t="n">
-        <v>0.231534089989437</v>
+        <v>0.389046053368457</v>
       </c>
       <c r="F6" t="n">
-        <v>0.402292626208352</v>
+        <v>0.239145141450068</v>
       </c>
     </row>
   </sheetData>
